--- a/project_files/files/templates/clientes.xlsx
+++ b/project_files/files/templates/clientes.xlsx
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>No.</t>
   </si>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t>Giro</t>
+  </si>
+  <si>
+    <t>Referencia Bancaria</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BB1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1383,9 +1386,10 @@
     <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1544,6 +1548,9 @@
       </c>
       <c r="BA1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BD1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1616,9 +1623,10 @@
     <col min="53" max="53" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1783,6 +1791,9 @@
       </c>
       <c r="BC1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
